--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2320938.677151294</v>
+        <v>2490810.867012613</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.366480917</v>
+        <v>393801.3664809168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5999219.728944186</v>
+        <v>6058039.542541717</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>353.8000497031728</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.11631013281968</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>24.76484596498756</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.7987877346514</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>156.3926442500675</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>292.9082206543466</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>292.9082206543466</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>208.2937041537626</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.9082206543466</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
         <v>52.84233230531351</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>26.33671329051796</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1038,10 +1038,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>105.4704721893415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1114,13 +1114,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>34.53558964739524</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1139,16 +1139,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>235.795323918825</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>120.0575234908815</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>25.45817320599492</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>93.82788883254312</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486138</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.35204796410281</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1850960300448</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>39.52314624902127</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>31.69987330627713</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>98.1536645839943</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7289536099874</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>29.94109061193838</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396246</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>100.2743011658318</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686538</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>31.69987330627758</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.54790254396246</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>51.58543740429571</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>179.4966503176931</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1850960300448</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>168.1487656894619</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2950,7 +2950,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>124.3387367898102</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399318</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.1668213893232</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542513</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475634</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>108.157765510409</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342881</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704347</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607372</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.285116379077</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824296</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535903</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530311</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915336</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705867</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3727,7 +3727,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545162</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3901,7 +3901,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0090037718574</v>
+        <v>126.009003771858</v>
       </c>
       <c r="E43" t="n">
         <v>128.8715224160353</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705961</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
@@ -4141,7 +4141,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F46" t="n">
         <v>134.4685551105455</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>1338.805632713439</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>911.9049027267394</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>488.6122819117396</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>466.6757461000012</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>41.55156428940145</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625574</v>
+        <v>403.8563647361497</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>914.3610754869196</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707754</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707754</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>1606.559816458524</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>1606.559816458524</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1606.559816458524</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1705.155881088956</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1705.155881088956</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1697.476286297107</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1696.179420292402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>387.0305349834992</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>282.3286012564364</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393406</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694456</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5310948040289</v>
+        <v>551.757616670024</v>
       </c>
       <c r="L3" t="n">
-        <v>37.5310948040289</v>
+        <v>551.757616670024</v>
       </c>
       <c r="M3" t="n">
-        <v>65.36624183552038</v>
+        <v>551.757616670024</v>
       </c>
       <c r="N3" t="n">
-        <v>65.36624183552038</v>
+        <v>551.757616670024</v>
       </c>
       <c r="O3" t="n">
-        <v>93.20138886701187</v>
+        <v>1062.262327420794</v>
       </c>
       <c r="P3" t="n">
-        <v>93.20138886701187</v>
+        <v>1303.775749552281</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.20138886701187</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>84.0649272658043</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>59.04993134157444</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>59.04993134157444</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>30.6496180761</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>30.6496180761</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>30.6496180761</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="D4" t="n">
-        <v>55.66461400032987</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6496180761</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.0491744110998</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="J4" t="n">
-        <v>30.08445184211706</v>
+        <v>41.25290591925414</v>
       </c>
       <c r="K4" t="n">
-        <v>57.91959887360855</v>
+        <v>166.2511979795731</v>
       </c>
       <c r="L4" t="n">
-        <v>57.91959887360855</v>
+        <v>520.9405192739939</v>
       </c>
       <c r="M4" t="n">
-        <v>57.91959887360855</v>
+        <v>912.1263142442447</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1289.61782512028</v>
       </c>
       <c r="O4" t="n">
-        <v>85.75474590510004</v>
+        <v>1645.045953800044</v>
       </c>
       <c r="P4" t="n">
-        <v>85.75474590510004</v>
+        <v>1935.645165721945</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962707</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.60668264988</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>1845.471635169015</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>1602.132287394915</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1321.947838895219</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.236371503248</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>765.3839676757609</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>522.820071121566</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>522.820071121566</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>556.4115484747215</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C5" t="n">
-        <v>533.5512225284257</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D5" t="n">
-        <v>375.5788545990646</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>79.71196504921951</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>58.62818727902382</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>58.32952890887651</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>58.32952890887651</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234773</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.43265765234773</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>313.4117961001508</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>591.6746057217802</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>591.6746057217802</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>881.6537441695832</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617386</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>875.7659930675412</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X5" t="n">
-        <v>868.0863982756925</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>572.2195087258475</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287.9604846896292</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>170.454581207134</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>170.454581207134</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.454581207134</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>76.80875089003814</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003814</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234773</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>30.87930061425957</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>302.5767898938507</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>592.5559283416537</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>592.5559283416537</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>592.5559283416537</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>592.5559283416537</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>592.5559283416537</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>799.63443408488</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532683</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.030141919893</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1003.150206217572</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>818.3820101372085</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>613.4088712764748</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>416.8874941096919</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>416.8874941096919</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>416.8874941096919</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.9684881466321</v>
+        <v>460.0356249219012</v>
       </c>
       <c r="C7" t="n">
-        <v>23.43265765234773</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D7" t="n">
-        <v>23.43265765234773</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>23.43265765234773</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>23.43265765234773</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234773</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234773</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234773</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234773</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234773</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>313.4117961001508</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>591.6746057217802</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>881.6537441695832</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1171.632882617386</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1171.632882617386</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617386</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1124.594269304559</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1124.594269304559</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1124.594269304559</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>844.4098208048638</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6983534128926</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6983534128926</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>320.1344568586977</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>320.1344568586977</v>
+        <v>650.2015936339669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.2403783903284</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1386.49695721847</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>990.1056075188168</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>982.4260127269681</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.0887426818584</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.0398767874501</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C10" t="n">
-        <v>638.0673136663661</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D10" t="n">
-        <v>474.7505407931368</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E10" t="n">
-        <v>308.5423349459903</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>1750.82397775594</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V10" t="n">
-        <v>1469.112510363969</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W10" t="n">
-        <v>1469.112510363969</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X10" t="n">
-        <v>1226.548613809774</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000.205845499516</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988737</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437222</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>446.8768486812677</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>446.8768486812677</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1451.162950100326</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2427.414008587027</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.558658737839</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P11" t="n">
-        <v>3640.027678832525</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.113158336709</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218611</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y11" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>91.72003282628405</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1346.796233497399</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1346.796233497399</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.796233497399</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O12" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709863</v>
+        <v>796.0638950398504</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064311</v>
+        <v>624.0913319187665</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897306</v>
+        <v>624.0913319187665</v>
       </c>
       <c r="E13" t="n">
-        <v>499.236756799113</v>
+        <v>457.88312607162</v>
       </c>
       <c r="F13" t="n">
-        <v>362.2718538302022</v>
+        <v>286.0213518461804</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>286.0213518461804</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675674</v>
+        <v>142.2250833543348</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380252</v>
+        <v>986.2298637519161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326523</v>
+        <v>986.2298637519161</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042731</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437222</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437222</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>799.7816978398713</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1683.99450542317</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1683.99450542317</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.245563909871</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O14" t="n">
-        <v>3505.390214060683</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.669493218611</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218611</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218611</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.19907034828</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502383</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885161</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442037</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866313</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077732</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437222</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>84.27338986437222</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>84.27338986437222</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>84.27338986437222</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>84.27338986437222</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>84.27338986437222</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>973.7546678758439</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1689.952384914342</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929077</v>
+        <v>373.4203922683205</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283525</v>
+        <v>201.4478291472369</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116519</v>
+        <v>201.4478291472369</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210342</v>
+        <v>201.4478291472369</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028844</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070539</v>
+        <v>159.7940416299864</v>
       </c>
       <c r="K16" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V16" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672326</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.425704677918</v>
+        <v>1032.493025844839</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>789.929129290644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048445</v>
+        <v>563.5863609803861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.410291042731</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.40643231256</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.01068275409</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>746.930614158476</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988727</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883214</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623562</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1110.352691037086</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1110.352691037086</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1110.352691037086</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>2086.603749523787</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O17" t="n">
-        <v>2931.748399674599</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P17" t="n">
-        <v>3640.027678832526</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q17" t="n">
-        <v>4096.11315833671</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077732</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1783.254613795209</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1892.961020444882</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1892.961020444882</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709865</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064312</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116519</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>526.3694855210342</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677918</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380252</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326523</v>
+        <v>636.3030194644176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988727</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883214</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623562</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>446.8768486812677</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1376.501896300544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2380.787997719603</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3357.039056206303</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>4202.183706357116</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>4213.669493218612</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218612</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W20" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X20" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y20" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1127.156589435979</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.1764135929076</v>
+        <v>326.381778955494</v>
       </c>
       <c r="C22" t="n">
-        <v>786.1007217283523</v>
+        <v>154.40921583441</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116519</v>
+        <v>154.40921583441</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210342</v>
+        <v>154.40921583441</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070539</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369393</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2209.616139349407</v>
+        <v>1822.202732251166</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.32856210624</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V22" t="n">
-        <v>1717.513965970798</v>
+        <v>1260.306816359499</v>
       </c>
       <c r="W22" t="n">
-        <v>1477.55843339984</v>
+        <v>985.454412532012</v>
       </c>
       <c r="X22" t="n">
-        <v>1269.891408102174</v>
+        <v>742.8905159778172</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.445511048444</v>
+        <v>516.5477476675596</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846668</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692585</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385137</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844912</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057894</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366634</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>91.6199977150544</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>91.6199977150544</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>1147.606535691099</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216685</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571133</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404128</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497952</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808844</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220075</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.272494995739</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1307.345429672326</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1032.493025844839</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>862.6457877746755</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177205</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6236,16 +6236,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,22 +6300,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6461,28 +6461,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,25 +6537,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491846</v>
+        <v>373.4203922683198</v>
       </c>
       <c r="C31" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472358</v>
       </c>
       <c r="D31" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472358</v>
       </c>
       <c r="E31" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472358</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058286</v>
@@ -6622,7 +6622,7 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6637,7 +6637,7 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q31" t="n">
         <v>2282.715740818957</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>960.0641767715083</v>
+        <v>789.9291292906433</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.7214084612503</v>
+        <v>563.5863609803855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>362.9923213875239</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>362.9923213875239</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1199.79112947043</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619907</v>
+        <v>534.9883540242364</v>
       </c>
       <c r="C34" t="n">
-        <v>786.293686222361</v>
+        <v>373.2152733633765</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305861</v>
+        <v>373.2152733633765</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648936</v>
+        <v>373.2152733633765</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209083</v>
+        <v>211.5529815981609</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965947</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892522</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543549</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>771.0005024080411</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137557</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.670833772859</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211888</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893054</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893082</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2362.687842893082</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2202.752277872441</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1969.612412558565</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519093</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1428.115461587346</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1163.462540220083</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>931.0981261261119</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>714.954840276078</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L35" t="n">
-        <v>1169.406598900327</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="M35" t="n">
-        <v>1578.98113809702</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="N35" t="n">
         <v>2555.23219658372</v>
       </c>
       <c r="O35" t="n">
-        <v>3400.376846734533</v>
+        <v>3400.376846734532</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.65612589246</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J36" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K36" t="n">
-        <v>370.4389643494358</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L36" t="n">
-        <v>843.9959247123975</v>
+        <v>1518.578566759179</v>
       </c>
       <c r="M36" t="n">
         <v>1899.982462688443</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2932.722201466268</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C37" t="n">
-        <v>2796.784589226637</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>2669.502767234862</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>2539.32951226917</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>2403.502688925184</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>2273.28067010087</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
-        <v>2165.519352490479</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I37" t="n">
-        <v>2101.785735112209</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J37" t="n">
-        <v>2194.594918695281</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>2456.440375260031</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>2846.447551913365</v>
+        <v>835.9566489090884</v>
       </c>
       <c r="M37" t="n">
-        <v>3272.951202242529</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N37" t="n">
-        <v>3685.760568477478</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
-        <v>4076.506552516154</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>4402.423619796969</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>4564.741605396644</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>4553.737942965271</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S37" t="n">
-        <v>4419.63784636586</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
-        <v>4212.333449473214</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
-        <v>3968.183951854973</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>3722.507435344456</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>3483.689982398423</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
-        <v>3277.161036725683</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y37" t="n">
-        <v>3086.853219296879</v>
+        <v>1076.362316292602</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7178,34 +7178,34 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1578.98113809702</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O38" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7214,7 +7214,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7245,25 +7245,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K39" t="n">
-        <v>681.7797586762724</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L39" t="n">
-        <v>1518.578566759179</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M39" t="n">
-        <v>1899.982462688443</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.982462688443</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="O39" t="n">
         <v>1899.982462688443</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223605</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305858</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648935</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209082</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965945</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
         <v>1675.269665473201</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I41" t="n">
         <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K41" t="n">
-        <v>1169.406598900327</v>
+        <v>649.356090477742</v>
       </c>
       <c r="L41" t="n">
-        <v>2099.031646519604</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="M41" t="n">
-        <v>2099.031646519604</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="N41" t="n">
         <v>2555.23219658372</v>
@@ -7445,16 +7445,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J42" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K42" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L42" t="n">
-        <v>1797.722699000682</v>
+        <v>928.093640190839</v>
       </c>
       <c r="M42" t="n">
         <v>1899.982462688443</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619912</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223605</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E43" t="n">
         <v>528.8386092648932</v>
@@ -7591,28 +7591,28 @@
         <v>2554.250702392368</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7655,43 +7655,43 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>2555.23219658372</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L45" t="n">
-        <v>379.8504478496181</v>
+        <v>928.093640190839</v>
       </c>
       <c r="M45" t="n">
-        <v>1435.836985825663</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.836985825663</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O45" t="n">
-        <v>1435.836985825663</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P45" t="n">
-        <v>1435.836985825663</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
         <v>1899.982462688443</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C46" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305858</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648935</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209082</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965945</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
-        <v>155.028449486203</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
         <v>445.9494722557545</v>
@@ -7813,10 +7813,10 @@
         <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7840,7 +7840,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
         <v>1473.199079394147</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>551.425924785486</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>221.8413658880111</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>552.9409468251228</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>64.55565941243201</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>538.0605578240101</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>538.8332137128989</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>265.7237928527958</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>43.13135541865613</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>147.2255555237413</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.59986036698565</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,19 +8216,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>328.6728214491559</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>319.3855875049758</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>330.1878434887926</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2991800103707</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8289,19 +8289,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876799</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,13 +8310,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>230.9410490262694</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433251</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500478</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6489849638387</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.657121629947</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.407408152771</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8453,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,10 +8532,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8547,13 +8547,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>99.71676862514317</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8690,22 +8690,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406071</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>408.7561901887026</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8772,7 +8772,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>419.3774956265374</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,16 +8781,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>931.4562925167633</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055928</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8945,10 +8945,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,16 +9015,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>969.8870401031046</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.8062660976048</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,16 +9164,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>705.9422193360394</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406071</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9246,10 +9246,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,10 +9258,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,13 +9401,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9416,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>49.17716672083363</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934323</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1076.514153816981</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N21" t="n">
-        <v>794.8828575154641</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568385</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574455</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9884,7 +9884,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9896,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,25 +9948,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10133,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,28 +10185,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>219.936600064271</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10358,7 +10358,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>379.3444866548641</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10425,16 +10425,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>730.3607534598156</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>818.2898182039227</v>
       </c>
       <c r="M35" t="n">
-        <v>451.1429186536662</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10659,19 +10659,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>500.8554507172212</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10826,13 +10826,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>451.1429186536662</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10844,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>408.3532410469382</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.476023666126</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>599.4628415723943</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11069,7 +11069,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>498.0882592628453</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11133,19 +11133,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>126.389471106026</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11303,10 +11303,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>498.2398993278321</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11318,7 +11318,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>313.9854056452248</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11394,7 +11394,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>356.3839468365922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.86140143470189</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.24773632810552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>356.3839468365922</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919088</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>26.86140143470202</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.3839468365919</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.8614014347017</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919111</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>356.3839468365917</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>118.5577190788894</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.86140143470236</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.86140143470189</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>71.98949189919099</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.91410070006295</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24847,13 +24847,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.989491899192</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088752</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530532</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.33914686267936</v>
       </c>
       <c r="H34" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>132.2608181713053</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150499</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407679</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-6.608047442568932e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>499240.6500528797</v>
+        <v>519696.18645666</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>510721.38537331</v>
+        <v>520944.2575196523</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>518026.7763748145</v>
+        <v>520944.2575196523</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508036.3056362775</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508036.3056362777</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>508036.3056362777</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508036.3056362778</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>534320.0547868778</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534771.9458659929</v>
+        <v>525585.1193985383</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>498086.8489876833</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="F2" t="n">
-        <v>498086.8489876833</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="G2" t="n">
-        <v>498086.8489876835</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
-        <v>498086.8489876832</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
-        <v>523618.1949390568</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="J2" t="n">
         <v>505827.3628237026</v>
@@ -26341,19 +26341,19 @@
         <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
-        <v>524198.4012100465</v>
+        <v>511027.1779813265</v>
       </c>
       <c r="M2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="N2" t="n">
-        <v>524198.4012100465</v>
+        <v>524198.4012100464</v>
       </c>
       <c r="O2" t="n">
-        <v>524198.4012100465</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="P2" t="n">
-        <v>524198.4012100464</v>
+        <v>524198.4012100466</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797275</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417944032</v>
+        <v>13105.84347019862</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447294</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826563</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085289</v>
+        <v>134919.6914542166</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710434</v>
+        <v>10440.51617310175</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410369979</v>
+        <v>8077.990108497434</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568029</v>
+        <v>173411.7992128439</v>
       </c>
       <c r="C4" t="n">
-        <v>231198.6061196087</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389564</v>
       </c>
       <c r="F4" t="n">
-        <v>73226.69586079578</v>
+        <v>43748.4004538956</v>
       </c>
       <c r="G4" t="n">
-        <v>73226.69586079578</v>
+        <v>43748.40045389564</v>
       </c>
       <c r="H4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389565</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.3115629073</v>
+        <v>47070.97709963559</v>
       </c>
       <c r="M4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290736</v>
       </c>
       <c r="N4" t="n">
         <v>76430.3115629073</v>
       </c>
       <c r="O4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290736</v>
       </c>
       <c r="P4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863314</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578427</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589135</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589135</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646877</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174318.3246965278</v>
+        <v>112996.8236188422</v>
       </c>
       <c r="C6" t="n">
-        <v>156016.8710952137</v>
+        <v>278270.5676599635</v>
       </c>
       <c r="D6" t="n">
-        <v>226018.3444184742</v>
+        <v>291376.4111301622</v>
       </c>
       <c r="E6" t="n">
-        <v>153506.2557513778</v>
+        <v>168538.5129625525</v>
       </c>
       <c r="F6" t="n">
-        <v>357907.9692109962</v>
+        <v>384277.869519193</v>
       </c>
       <c r="G6" t="n">
-        <v>357907.9692109963</v>
+        <v>384277.8695191929</v>
       </c>
       <c r="H6" t="n">
-        <v>357907.9692109961</v>
+        <v>384277.869519193</v>
       </c>
       <c r="I6" t="n">
-        <v>351221.4493337964</v>
+        <v>384277.8695191928</v>
       </c>
       <c r="J6" t="n">
-        <v>342034.0805305245</v>
+        <v>249358.1780649764</v>
       </c>
       <c r="K6" t="n">
-        <v>316179.935754273</v>
+        <v>373837.3533460913</v>
       </c>
       <c r="L6" t="n">
-        <v>339026.425078614</v>
+        <v>377242.6761655338</v>
       </c>
       <c r="M6" t="n">
-        <v>227851.7682003999</v>
+        <v>209149.4273745423</v>
       </c>
       <c r="N6" t="n">
+        <v>375384.8891823137</v>
+      </c>
+      <c r="O6" t="n">
+        <v>375384.8891823142</v>
+      </c>
+      <c r="P6" t="n">
         <v>375384.8891823138</v>
-      </c>
-      <c r="O6" t="n">
-        <v>375384.8891823138</v>
-      </c>
-      <c r="P6" t="n">
-        <v>375384.8891823137</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263964</v>
@@ -26725,7 +26725,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543466</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701785</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215269</v>
+        <v>40.56648912491744</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059876</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443186</v>
+        <v>722.556104457262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352697</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674966</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215269</v>
+        <v>40.56648912491744</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229169</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443186</v>
+        <v>584.9575882335658</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215269</v>
+        <v>40.56648912491744</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059876</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443186</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>61.84983094544191</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27436,7 +27436,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.39469483153834</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>115.6962903803109</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>18.46552129029357</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7812778236874</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>262.6670503567822</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>128.8089497992744</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.51921554831</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>199.3090946901676</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.375676690312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>54.17429167384006</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>64.78236530053165</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27789,10 +27789,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>189.5437509797601</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27859,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>118.119196806188</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>272.369912711775</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>136.2254319385021</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>183.5547151821556</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562179</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>183.5293234553882</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,34 +34772,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906767</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>243.9529516479671</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>19.45843602451199</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>126.2609010710293</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.98029760220071</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>292.9082206543466</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>281.0735450723529</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>292.9082206543466</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>292.9082206543466</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35009,19 +35009,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543466</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,13 +35030,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>209.1702078214407</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543466</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543466</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>281.0735450723529</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543466</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543466</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,13 +35267,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>77.9459274203145</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35410,22 +35410,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>371.1808283784713</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35492,7 +35492,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>396.8624089123078</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>893.1442500841404</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35665,10 +35665,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>670.1776185412301</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35966,10 +35966,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36136,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>11.60180491060233</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>19.53098502454676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1053.417373304653</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N21" t="n">
-        <v>773.5398293019225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223925</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36616,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36853,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0648638204181</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>707.2639729474876</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.16953634689251</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293967</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471579</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722388</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.402044076062</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333623</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324915</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747753</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>779.9777757712998</v>
       </c>
       <c r="M35" t="n">
-        <v>413.7116557542344</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>478.3403640029916</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>413.7116557542344</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37564,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>385.2564605346102</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>563.6982407775849</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>460.8086364283993</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>103.292690593698</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J44" t="n">
         <v>366.2661200170662</v>
@@ -38023,10 +38023,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>460.8086364284002</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38038,7 +38038,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>291.4703189309952</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
